--- a/五大人格.xlsx
+++ b/五大人格.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D\CourseProject\GPA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6748154-8857-459F-80C8-C279EEAD46E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E46D9AB-6346-43B1-ACCC-4A35C8E7219A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19896" windowHeight="11304" xr2:uid="{2984900C-4CF5-4F9D-A1E8-3A3E198BBAF3}"/>
+    <workbookView xWindow="348" yWindow="348" windowWidth="19896" windowHeight="11304" xr2:uid="{2984900C-4CF5-4F9D-A1E8-3A3E198BBAF3}"/>
   </bookViews>
   <sheets>
     <sheet name="词" sheetId="4" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="肝帝" sheetId="5" r:id="rId4"/>
     <sheet name="强不强" sheetId="6" r:id="rId5"/>
     <sheet name="锁血" sheetId="7" r:id="rId6"/>
+    <sheet name="NB" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="69">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,22 +89,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>探索型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杀戮型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成就型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>社交型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>锁血</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -193,6 +178,134 @@
   </si>
   <si>
     <t>绕圈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石坑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白捡</t>
+  </si>
+  <si>
+    <t>魔法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肉块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我淦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>延时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>趁手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小葛</t>
+  </si>
+  <si>
+    <t>二十多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十几万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一週目</t>
+  </si>
+  <si>
+    <t>教教</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好玩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非杀不可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盾太强</t>
+  </si>
+  <si>
+    <t>癫火</t>
+  </si>
+  <si>
+    <t>打土龙</t>
+  </si>
+  <si>
+    <t>踹</t>
+  </si>
+  <si>
+    <t>三狗</t>
+  </si>
+  <si>
+    <t>情愿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能削</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身躯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桥下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装逼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旧作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶魔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -248,11 +361,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -569,973 +685,2379 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{282D57C2-83AB-4DBD-9EA1-F30463C6B1AE}">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:L57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="9.77734375" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <f>H2+12</f>
+        <v>26</v>
       </c>
       <c r="C2">
-        <v>14</v>
+        <f>I2+12</f>
+        <v>19</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <f>J2+18</f>
+        <v>27</v>
       </c>
       <c r="E2">
-        <v>9</v>
+        <f>K2+36</f>
+        <v>16</v>
       </c>
       <c r="F2">
-        <v>-20</v>
+        <f>L2+12</f>
+        <v>13</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2">
-        <f>C2+12</f>
+        <v>14</v>
+      </c>
+      <c r="I2">
+        <v>7</v>
+      </c>
+      <c r="J2">
+        <v>9</v>
+      </c>
+      <c r="K2">
+        <v>-20</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3">
+        <f>H3+12</f>
+        <v>25</v>
+      </c>
+      <c r="C3">
+        <f>I3+12</f>
+        <v>28</v>
+      </c>
+      <c r="D3">
+        <f>J3+18</f>
+        <v>38</v>
+      </c>
+      <c r="E3">
+        <f>K3+36</f>
+        <v>32</v>
+      </c>
+      <c r="F3">
+        <f>L3+12</f>
+        <v>34</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>13</v>
+      </c>
+      <c r="I3">
+        <v>16</v>
+      </c>
+      <c r="J3">
+        <v>20</v>
+      </c>
+      <c r="K3">
+        <v>-4</v>
+      </c>
+      <c r="L3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4">
+        <f>H4+12</f>
+        <v>24</v>
+      </c>
+      <c r="C4">
+        <f>I4+12</f>
+        <v>24</v>
+      </c>
+      <c r="D4">
+        <f>J4+18</f>
+        <v>30</v>
+      </c>
+      <c r="E4">
+        <f>K4+36</f>
+        <v>24</v>
+      </c>
+      <c r="F4">
+        <f>L4+12</f>
+        <v>27</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>12</v>
+      </c>
+      <c r="I4">
+        <v>12</v>
+      </c>
+      <c r="J4">
+        <v>12</v>
+      </c>
+      <c r="K4">
+        <v>-12</v>
+      </c>
+      <c r="L4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5">
+        <f>H5+12</f>
+        <v>27</v>
+      </c>
+      <c r="C5">
+        <f>I5+12</f>
+        <v>28</v>
+      </c>
+      <c r="D5">
+        <f>J5+18</f>
+        <v>34</v>
+      </c>
+      <c r="E5">
+        <f>K5+36</f>
+        <v>24</v>
+      </c>
+      <c r="F5">
+        <f>L5+12</f>
+        <v>24</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>15</v>
+      </c>
+      <c r="I5">
+        <v>16</v>
+      </c>
+      <c r="J5">
+        <v>16</v>
+      </c>
+      <c r="K5">
+        <v>-12</v>
+      </c>
+      <c r="L5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <f>H6+12</f>
+        <v>21</v>
+      </c>
+      <c r="C6">
+        <f>I6+12</f>
+        <v>32</v>
+      </c>
+      <c r="D6">
+        <f>J6+18</f>
+        <v>30</v>
+      </c>
+      <c r="E6">
+        <f>K6+36</f>
+        <v>30</v>
+      </c>
+      <c r="F6">
+        <f>L6+12</f>
+        <v>37</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>9</v>
+      </c>
+      <c r="I6">
+        <v>20</v>
+      </c>
+      <c r="J6">
+        <v>12</v>
+      </c>
+      <c r="K6">
+        <v>-6</v>
+      </c>
+      <c r="L6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <f>H7+12</f>
         <v>26</v>
       </c>
-      <c r="I2">
-        <f>D2+12</f>
+      <c r="C7">
+        <f>I7+12</f>
+        <v>26</v>
+      </c>
+      <c r="D7">
+        <f>J7+18</f>
+        <v>30</v>
+      </c>
+      <c r="E7">
+        <f>K7+36</f>
+        <v>16</v>
+      </c>
+      <c r="F7">
+        <f>L7+12</f>
+        <v>34</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>14</v>
+      </c>
+      <c r="I7">
+        <v>14</v>
+      </c>
+      <c r="J7">
+        <v>12</v>
+      </c>
+      <c r="K7">
+        <v>-20</v>
+      </c>
+      <c r="L7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8">
+        <f>H8+12</f>
+        <v>24</v>
+      </c>
+      <c r="C8">
+        <f>I8+12</f>
+        <v>26</v>
+      </c>
+      <c r="D8">
+        <f>J8+18</f>
+        <v>30</v>
+      </c>
+      <c r="E8">
+        <f>K8+36</f>
+        <v>26</v>
+      </c>
+      <c r="F8">
+        <f>L8+12</f>
+        <v>24</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>12</v>
+      </c>
+      <c r="I8">
+        <v>14</v>
+      </c>
+      <c r="J8">
+        <v>12</v>
+      </c>
+      <c r="K8">
+        <v>-10</v>
+      </c>
+      <c r="L8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9">
+        <f>H9+12</f>
+        <v>24</v>
+      </c>
+      <c r="C9">
+        <f>I9+12</f>
+        <v>28</v>
+      </c>
+      <c r="D9">
+        <f>J9+18</f>
+        <v>34</v>
+      </c>
+      <c r="E9">
+        <f>K9+36</f>
+        <v>26</v>
+      </c>
+      <c r="F9">
+        <f>L9+12</f>
+        <v>27</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+      <c r="H9">
+        <v>12</v>
+      </c>
+      <c r="I9">
+        <v>16</v>
+      </c>
+      <c r="J9">
+        <v>16</v>
+      </c>
+      <c r="K9">
+        <v>-10</v>
+      </c>
+      <c r="L9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10">
+        <f>H10+12</f>
+        <v>28</v>
+      </c>
+      <c r="C10">
+        <f>I10+12</f>
+        <v>36</v>
+      </c>
+      <c r="D10">
+        <f>J10+18</f>
+        <v>28</v>
+      </c>
+      <c r="E10">
+        <f>K10+36</f>
+        <v>22</v>
+      </c>
+      <c r="F10">
+        <f>L10+12</f>
+        <v>16</v>
+      </c>
+      <c r="G10">
+        <v>7</v>
+      </c>
+      <c r="H10">
+        <v>16</v>
+      </c>
+      <c r="I10">
+        <v>24</v>
+      </c>
+      <c r="J10">
+        <v>10</v>
+      </c>
+      <c r="K10">
+        <v>-14</v>
+      </c>
+      <c r="L10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11">
+        <f>H11+12</f>
+        <v>18</v>
+      </c>
+      <c r="C11">
+        <f>I11+12</f>
+        <v>35</v>
+      </c>
+      <c r="D11">
+        <f>J11+18</f>
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <f>K11+36</f>
+        <v>33</v>
+      </c>
+      <c r="F11">
+        <f>L11+12</f>
+        <v>22</v>
+      </c>
+      <c r="G11">
+        <v>8</v>
+      </c>
+      <c r="H11">
+        <v>6</v>
+      </c>
+      <c r="I11">
+        <v>23</v>
+      </c>
+      <c r="J11">
+        <v>7</v>
+      </c>
+      <c r="K11">
+        <v>-3</v>
+      </c>
+      <c r="L11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12">
+        <f>H12+12</f>
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <f>I12+12</f>
+        <v>32</v>
+      </c>
+      <c r="D12">
+        <f>J12+18</f>
+        <v>34</v>
+      </c>
+      <c r="E12">
+        <f>K12+36</f>
+        <v>24</v>
+      </c>
+      <c r="F12">
+        <f>L12+12</f>
+        <v>32</v>
+      </c>
+      <c r="G12">
+        <v>9</v>
+      </c>
+      <c r="H12">
+        <v>8</v>
+      </c>
+      <c r="I12">
+        <v>20</v>
+      </c>
+      <c r="J12">
+        <v>16</v>
+      </c>
+      <c r="K12">
+        <v>-12</v>
+      </c>
+      <c r="L12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13">
+        <f>H13+12</f>
+        <v>24</v>
+      </c>
+      <c r="C13">
+        <f>I13+12</f>
+        <v>31</v>
+      </c>
+      <c r="D13">
+        <f>J13+18</f>
+        <v>35</v>
+      </c>
+      <c r="E13">
+        <f>K13+36</f>
+        <v>22</v>
+      </c>
+      <c r="F13">
+        <f>L13+12</f>
+        <v>27</v>
+      </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
+      <c r="H13">
+        <v>12</v>
+      </c>
+      <c r="I13">
         <v>19</v>
       </c>
-      <c r="J2">
-        <f>E2+18</f>
+      <c r="J13">
+        <v>17</v>
+      </c>
+      <c r="K13">
+        <v>-14</v>
+      </c>
+      <c r="L13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <f>H14+12</f>
+        <v>25</v>
+      </c>
+      <c r="C14">
+        <f>I14+12</f>
+        <v>41</v>
+      </c>
+      <c r="D14">
+        <f>J14+18</f>
+        <v>23</v>
+      </c>
+      <c r="E14">
+        <f>K14+36</f>
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <f>L14+12</f>
+        <v>30</v>
+      </c>
+      <c r="G14">
+        <v>11</v>
+      </c>
+      <c r="H14">
+        <v>13</v>
+      </c>
+      <c r="I14">
+        <v>29</v>
+      </c>
+      <c r="J14">
+        <v>5</v>
+      </c>
+      <c r="K14">
+        <v>-31</v>
+      </c>
+      <c r="L14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <f>H15+12</f>
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <f>I15+12</f>
+        <v>34</v>
+      </c>
+      <c r="D15">
+        <f>J15+18</f>
+        <v>42</v>
+      </c>
+      <c r="E15">
+        <f>K15+36</f>
+        <v>22</v>
+      </c>
+      <c r="F15">
+        <f>L15+12</f>
+        <v>39</v>
+      </c>
+      <c r="G15">
+        <v>12</v>
+      </c>
+      <c r="H15">
+        <v>3</v>
+      </c>
+      <c r="I15">
+        <v>22</v>
+      </c>
+      <c r="J15">
+        <v>24</v>
+      </c>
+      <c r="K15">
+        <v>-14</v>
+      </c>
+      <c r="L15">
         <v>27</v>
       </c>
-      <c r="K2">
-        <f>F2+36</f>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16">
+        <f>H16+12</f>
+        <v>28</v>
+      </c>
+      <c r="C16">
+        <f>I16+12</f>
+        <v>30</v>
+      </c>
+      <c r="D16">
+        <f>J16+18</f>
+        <v>36</v>
+      </c>
+      <c r="E16">
+        <f>K16+36</f>
+        <v>24</v>
+      </c>
+      <c r="F16">
+        <f>L16+12</f>
+        <v>30</v>
+      </c>
+      <c r="G16">
+        <v>13</v>
+      </c>
+      <c r="H16">
         <v>16</v>
       </c>
-      <c r="L2">
-        <f>G2+12</f>
+      <c r="I16">
+        <v>18</v>
+      </c>
+      <c r="J16">
+        <v>18</v>
+      </c>
+      <c r="K16">
+        <v>-12</v>
+      </c>
+      <c r="L16">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17">
+        <f>H17+12</f>
+        <v>27</v>
+      </c>
+      <c r="C17">
+        <f>I17+12</f>
+        <v>24</v>
+      </c>
+      <c r="D17">
+        <f>J17+18</f>
+        <v>34</v>
+      </c>
+      <c r="E17">
+        <f>K17+36</f>
+        <v>24</v>
+      </c>
+      <c r="F17">
+        <f>L17+12</f>
+        <v>24</v>
+      </c>
+      <c r="G17">
+        <v>14</v>
+      </c>
+      <c r="H17">
+        <v>15</v>
+      </c>
+      <c r="I17">
+        <v>12</v>
+      </c>
+      <c r="J17">
+        <v>16</v>
+      </c>
+      <c r="K17">
+        <v>-12</v>
+      </c>
+      <c r="L17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18">
+        <f>H18+12</f>
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <f>I18+12</f>
+        <v>37</v>
+      </c>
+      <c r="D18">
+        <f>J18+18</f>
+        <v>38</v>
+      </c>
+      <c r="E18">
+        <f>K18+36</f>
+        <v>16</v>
+      </c>
+      <c r="F18">
+        <f>L18+12</f>
+        <v>27</v>
+      </c>
+      <c r="G18">
+        <v>15</v>
+      </c>
+      <c r="H18">
+        <v>4</v>
+      </c>
+      <c r="I18">
+        <v>25</v>
+      </c>
+      <c r="J18">
+        <v>20</v>
+      </c>
+      <c r="K18">
+        <v>-20</v>
+      </c>
+      <c r="L18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19">
+        <f>H19+12</f>
+        <v>26</v>
+      </c>
+      <c r="C19">
+        <f>I19+12</f>
+        <v>27</v>
+      </c>
+      <c r="D19">
+        <f>J19+18</f>
+        <v>33</v>
+      </c>
+      <c r="E19">
+        <f>K19+36</f>
+        <v>30</v>
+      </c>
+      <c r="F19">
+        <f>L19+12</f>
+        <v>22</v>
+      </c>
+      <c r="G19">
+        <v>16</v>
+      </c>
+      <c r="H19">
+        <v>14</v>
+      </c>
+      <c r="I19">
+        <v>15</v>
+      </c>
+      <c r="J19">
+        <v>15</v>
+      </c>
+      <c r="K19">
+        <v>-6</v>
+      </c>
+      <c r="L19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20">
+        <f>H20+12</f>
+        <v>27</v>
+      </c>
+      <c r="C20">
+        <f>I20+12</f>
+        <v>28</v>
+      </c>
+      <c r="D20">
+        <f>J20+18</f>
+        <v>33</v>
+      </c>
+      <c r="E20">
+        <f>K20+36</f>
+        <v>24</v>
+      </c>
+      <c r="F20">
+        <f>L20+12</f>
+        <v>32</v>
+      </c>
+      <c r="G20">
+        <v>17</v>
+      </c>
+      <c r="H20">
+        <v>15</v>
+      </c>
+      <c r="I20">
+        <v>16</v>
+      </c>
+      <c r="J20">
+        <v>15</v>
+      </c>
+      <c r="K20">
+        <v>-12</v>
+      </c>
+      <c r="L20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21">
+        <f>H21+12</f>
+        <v>24</v>
+      </c>
+      <c r="C21">
+        <f>I21+12</f>
+        <v>24</v>
+      </c>
+      <c r="D21">
+        <f>J21+18</f>
+        <v>30</v>
+      </c>
+      <c r="E21">
+        <f>K21+36</f>
+        <v>24</v>
+      </c>
+      <c r="F21">
+        <f>L21+12</f>
+        <v>24</v>
+      </c>
+      <c r="G21">
+        <v>18</v>
+      </c>
+      <c r="H21">
+        <v>12</v>
+      </c>
+      <c r="I21">
+        <v>12</v>
+      </c>
+      <c r="J21">
+        <v>12</v>
+      </c>
+      <c r="K21">
+        <v>-12</v>
+      </c>
+      <c r="L21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <f>H22+12</f>
+        <v>30</v>
+      </c>
+      <c r="C22">
+        <f>I22+12</f>
+        <v>40</v>
+      </c>
+      <c r="D22">
+        <f>J22+18</f>
+        <v>26</v>
+      </c>
+      <c r="E22">
+        <f>K22+36</f>
+        <v>8</v>
+      </c>
+      <c r="F22">
+        <f>L22+12</f>
+        <v>28</v>
+      </c>
+      <c r="G22">
+        <v>19</v>
+      </c>
+      <c r="H22">
+        <v>18</v>
+      </c>
+      <c r="I22">
+        <v>28</v>
+      </c>
+      <c r="J22">
+        <v>8</v>
+      </c>
+      <c r="K22">
+        <v>-28</v>
+      </c>
+      <c r="L22">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23">
+        <f>H23+12</f>
+        <v>30</v>
+      </c>
+      <c r="C23">
+        <f>I23+12</f>
+        <v>32</v>
+      </c>
+      <c r="D23">
+        <f>J23+18</f>
+        <v>28</v>
+      </c>
+      <c r="E23">
+        <f>K23+36</f>
+        <v>16</v>
+      </c>
+      <c r="F23">
+        <f>L23+12</f>
+        <v>27</v>
+      </c>
+      <c r="G23">
+        <v>20</v>
+      </c>
+      <c r="H23">
+        <v>18</v>
+      </c>
+      <c r="I23">
+        <v>20</v>
+      </c>
+      <c r="J23">
+        <v>10</v>
+      </c>
+      <c r="K23">
+        <v>-20</v>
+      </c>
+      <c r="L23">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24">
+        <f>H24+12</f>
+        <v>21</v>
+      </c>
+      <c r="C24">
+        <f>I24+12</f>
+        <v>28</v>
+      </c>
+      <c r="D24">
+        <f>J24+18</f>
+        <v>26</v>
+      </c>
+      <c r="E24">
+        <f>K24+36</f>
+        <v>32</v>
+      </c>
+      <c r="F24">
+        <f>L24+12</f>
+        <v>24</v>
+      </c>
+      <c r="G24">
+        <v>21</v>
+      </c>
+      <c r="H24">
+        <v>9</v>
+      </c>
+      <c r="I24">
+        <v>16</v>
+      </c>
+      <c r="J24">
+        <v>8</v>
+      </c>
+      <c r="K24">
+        <v>-4</v>
+      </c>
+      <c r="L24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25">
+        <f>H25+12</f>
+        <v>27</v>
+      </c>
+      <c r="C25">
+        <f>I25+12</f>
+        <v>31</v>
+      </c>
+      <c r="D25">
+        <f>J25+18</f>
+        <v>40</v>
+      </c>
+      <c r="E25">
+        <f>K25+36</f>
+        <v>24</v>
+      </c>
+      <c r="F25">
+        <f>L25+12</f>
+        <v>33</v>
+      </c>
+      <c r="G25">
+        <v>22</v>
+      </c>
+      <c r="H25">
+        <v>15</v>
+      </c>
+      <c r="I25">
+        <v>19</v>
+      </c>
+      <c r="J25">
+        <v>22</v>
+      </c>
+      <c r="K25">
+        <v>-12</v>
+      </c>
+      <c r="L25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26">
+        <f>H26+12</f>
+        <v>19</v>
+      </c>
+      <c r="C26">
+        <f>I26+12</f>
+        <v>40</v>
+      </c>
+      <c r="D26">
+        <f>J26+18</f>
+        <v>28</v>
+      </c>
+      <c r="E26">
+        <f>K26+36</f>
+        <v>34</v>
+      </c>
+      <c r="F26">
+        <f>L26+12</f>
+        <v>20</v>
+      </c>
+      <c r="G26">
+        <v>23</v>
+      </c>
+      <c r="H26">
+        <v>7</v>
+      </c>
+      <c r="I26">
+        <v>28</v>
+      </c>
+      <c r="J26">
+        <v>10</v>
+      </c>
+      <c r="K26">
+        <v>-2</v>
+      </c>
+      <c r="L26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27">
+        <f>H27+12</f>
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <f>I27+12</f>
+        <v>30</v>
+      </c>
+      <c r="D27">
+        <f>J27+18</f>
+        <v>33</v>
+      </c>
+      <c r="E27">
+        <f>K27+36</f>
+        <v>11</v>
+      </c>
+      <c r="F27">
+        <f>L27+12</f>
+        <v>41</v>
+      </c>
+      <c r="G27">
+        <v>24</v>
+      </c>
+      <c r="H27">
+        <v>15</v>
+      </c>
+      <c r="I27">
+        <v>18</v>
+      </c>
+      <c r="J27">
+        <v>15</v>
+      </c>
+      <c r="K27">
+        <v>-25</v>
+      </c>
+      <c r="L27">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28">
+        <f>H28+12</f>
+        <v>20</v>
+      </c>
+      <c r="C28">
+        <f>I28+12</f>
+        <v>34</v>
+      </c>
+      <c r="D28">
+        <f>J28+18</f>
+        <v>30</v>
+      </c>
+      <c r="E28">
+        <f>K28+36</f>
+        <v>28</v>
+      </c>
+      <c r="F28">
+        <f>L28+12</f>
+        <v>24</v>
+      </c>
+      <c r="G28">
+        <v>25</v>
+      </c>
+      <c r="H28">
+        <v>8</v>
+      </c>
+      <c r="I28">
+        <v>22</v>
+      </c>
+      <c r="J28">
+        <v>12</v>
+      </c>
+      <c r="K28">
+        <v>-8</v>
+      </c>
+      <c r="L28">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29">
+        <f>H29+12</f>
+        <v>26</v>
+      </c>
+      <c r="C29">
+        <f>I29+12</f>
+        <v>26</v>
+      </c>
+      <c r="D29">
+        <f>J29+18</f>
+        <v>30</v>
+      </c>
+      <c r="E29">
+        <f>K29+36</f>
+        <v>16</v>
+      </c>
+      <c r="F29">
+        <f>L29+12</f>
+        <v>34</v>
+      </c>
+      <c r="G29">
+        <v>25</v>
+      </c>
+      <c r="H29">
+        <v>14</v>
+      </c>
+      <c r="I29">
+        <v>14</v>
+      </c>
+      <c r="J29">
+        <v>12</v>
+      </c>
+      <c r="K29">
+        <v>-20</v>
+      </c>
+      <c r="L29">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30">
+        <f>H30+12</f>
+        <v>20</v>
+      </c>
+      <c r="C30">
+        <f>I30+12</f>
+        <v>26</v>
+      </c>
+      <c r="D30">
+        <f>J30+18</f>
+        <v>33</v>
+      </c>
+      <c r="E30">
+        <f>K30+36</f>
+        <v>18</v>
+      </c>
+      <c r="F30">
+        <f>L30+12</f>
+        <v>32</v>
+      </c>
+      <c r="G30">
+        <v>26</v>
+      </c>
+      <c r="H30">
+        <v>8</v>
+      </c>
+      <c r="I30">
+        <v>14</v>
+      </c>
+      <c r="J30">
+        <v>15</v>
+      </c>
+      <c r="K30">
+        <v>-18</v>
+      </c>
+      <c r="L30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31">
+        <f>H31+12</f>
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <f>I31+12</f>
+        <v>38</v>
+      </c>
+      <c r="D31">
+        <f>J31+18</f>
+        <v>28</v>
+      </c>
+      <c r="E31">
+        <f>K31+36</f>
+        <v>6</v>
+      </c>
+      <c r="F31">
+        <f>L31+12</f>
+        <v>20</v>
+      </c>
+      <c r="G31">
+        <v>27</v>
+      </c>
+      <c r="H31">
+        <v>18</v>
+      </c>
+      <c r="I31">
+        <v>26</v>
+      </c>
+      <c r="J31">
+        <v>10</v>
+      </c>
+      <c r="K31">
+        <v>-30</v>
+      </c>
+      <c r="L31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32">
+        <f>H32+12</f>
+        <v>26</v>
+      </c>
+      <c r="C32">
+        <f>I32+12</f>
+        <v>37</v>
+      </c>
+      <c r="D32">
+        <f>J32+18</f>
+        <v>34</v>
+      </c>
+      <c r="E32">
+        <f>K32+36</f>
+        <v>12</v>
+      </c>
+      <c r="F32">
+        <f>L32+12</f>
+        <v>24</v>
+      </c>
+      <c r="G32">
+        <v>28</v>
+      </c>
+      <c r="H32">
+        <v>14</v>
+      </c>
+      <c r="I32">
+        <v>25</v>
+      </c>
+      <c r="J32">
+        <v>16</v>
+      </c>
+      <c r="K32">
+        <v>-24</v>
+      </c>
+      <c r="L32">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33">
+        <f>H33+12</f>
+        <v>28</v>
+      </c>
+      <c r="C33">
+        <f>I33+12</f>
+        <v>42</v>
+      </c>
+      <c r="D33">
+        <f>J33+18</f>
+        <v>30</v>
+      </c>
+      <c r="E33">
+        <f>K33+36</f>
+        <v>8</v>
+      </c>
+      <c r="F33">
+        <f>L33+12</f>
+        <v>22</v>
+      </c>
+      <c r="G33">
+        <v>29</v>
+      </c>
+      <c r="H33">
+        <v>16</v>
+      </c>
+      <c r="I33">
+        <v>30</v>
+      </c>
+      <c r="J33">
+        <v>12</v>
+      </c>
+      <c r="K33">
+        <v>-28</v>
+      </c>
+      <c r="L33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34">
+        <f>H34+12</f>
+        <v>25</v>
+      </c>
+      <c r="C34">
+        <f>I34+12</f>
+        <v>41</v>
+      </c>
+      <c r="D34">
+        <f>J34+18</f>
+        <v>34</v>
+      </c>
+      <c r="E34">
+        <f>K34+36</f>
+        <v>11</v>
+      </c>
+      <c r="F34">
+        <f>L34+12</f>
+        <v>24</v>
+      </c>
+      <c r="G34">
+        <v>30</v>
+      </c>
+      <c r="H34">
         <v>13</v>
       </c>
-      <c r="M2" t="s">
+      <c r="I34">
+        <v>29</v>
+      </c>
+      <c r="J34">
+        <v>16</v>
+      </c>
+      <c r="K34">
+        <v>-25</v>
+      </c>
+      <c r="L34">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35">
+        <f>H35+12</f>
+        <v>27</v>
+      </c>
+      <c r="C35">
+        <f>I35+12</f>
+        <v>32</v>
+      </c>
+      <c r="D35">
+        <f>J35+18</f>
+        <v>32</v>
+      </c>
+      <c r="E35">
+        <f>K35+36</f>
+        <v>16</v>
+      </c>
+      <c r="F35">
+        <f>L35+12</f>
+        <v>27</v>
+      </c>
+      <c r="G35">
+        <v>31</v>
+      </c>
+      <c r="H35">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>9</v>
-      </c>
-      <c r="D3">
+      <c r="I35">
         <v>20</v>
       </c>
-      <c r="E3">
+      <c r="J35">
+        <v>14</v>
+      </c>
+      <c r="K35">
+        <v>-20</v>
+      </c>
+      <c r="L35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36">
+        <f>H36+12</f>
+        <v>22</v>
+      </c>
+      <c r="C36">
+        <f>I36+12</f>
+        <v>31</v>
+      </c>
+      <c r="D36">
+        <f>J36+18</f>
+        <v>31</v>
+      </c>
+      <c r="E36">
+        <f>K36+36</f>
+        <v>20</v>
+      </c>
+      <c r="F36">
+        <f>L36+12</f>
+        <v>24</v>
+      </c>
+      <c r="G36">
+        <v>32</v>
+      </c>
+      <c r="H36">
+        <v>10</v>
+      </c>
+      <c r="I36">
+        <v>19</v>
+      </c>
+      <c r="J36">
+        <v>13</v>
+      </c>
+      <c r="K36">
+        <v>-16</v>
+      </c>
+      <c r="L36">
         <v>12</v>
       </c>
-      <c r="F3">
-        <v>-6</v>
-      </c>
-      <c r="G3">
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37">
+        <f>H37+12</f>
+        <v>36</v>
+      </c>
+      <c r="C37">
+        <f>I37+12</f>
+        <v>28</v>
+      </c>
+      <c r="D37">
+        <f>J37+18</f>
+        <v>28</v>
+      </c>
+      <c r="E37">
+        <f>K37+36</f>
+        <v>4</v>
+      </c>
+      <c r="F37">
+        <f>L37+12</f>
+        <v>16</v>
+      </c>
+      <c r="G37">
+        <v>33</v>
+      </c>
+      <c r="H37">
+        <v>24</v>
+      </c>
+      <c r="I37">
+        <v>16</v>
+      </c>
+      <c r="J37">
+        <v>10</v>
+      </c>
+      <c r="K37">
+        <v>-32</v>
+      </c>
+      <c r="L37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38">
+        <f>H38+12</f>
+        <v>23</v>
+      </c>
+      <c r="C38">
+        <f>I38+12</f>
+        <v>31</v>
+      </c>
+      <c r="D38">
+        <f>J38+18</f>
+        <v>29</v>
+      </c>
+      <c r="E38">
+        <f>K38+36</f>
+        <v>20</v>
+      </c>
+      <c r="F38">
+        <f>L38+12</f>
         <v>25</v>
       </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H20" si="0">C3+12</f>
-        <v>21</v>
-      </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I20" si="1">D3+12</f>
+      <c r="G38">
+        <v>34</v>
+      </c>
+      <c r="H38">
+        <v>11</v>
+      </c>
+      <c r="I38">
+        <v>19</v>
+      </c>
+      <c r="J38">
+        <v>11</v>
+      </c>
+      <c r="K38">
+        <v>-16</v>
+      </c>
+      <c r="L38">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>59</v>
+      </c>
+      <c r="B39">
+        <f>H39+12</f>
+        <v>24</v>
+      </c>
+      <c r="C39">
+        <f>I39+12</f>
+        <v>29</v>
+      </c>
+      <c r="D39">
+        <f>J39+18</f>
         <v>32</v>
       </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J20" si="2">E3+18</f>
+      <c r="E39">
+        <f>K39+36</f>
+        <v>24</v>
+      </c>
+      <c r="F39">
+        <f>L39+12</f>
+        <v>25</v>
+      </c>
+      <c r="G39">
+        <v>35</v>
+      </c>
+      <c r="H39">
+        <v>12</v>
+      </c>
+      <c r="I39">
+        <v>17</v>
+      </c>
+      <c r="J39">
+        <v>14</v>
+      </c>
+      <c r="K39">
+        <v>-12</v>
+      </c>
+      <c r="L39">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40">
+        <f>H40+12</f>
+        <v>17</v>
+      </c>
+      <c r="C40">
+        <f>I40+12</f>
+        <v>40</v>
+      </c>
+      <c r="D40">
+        <f>J40+18</f>
+        <v>36</v>
+      </c>
+      <c r="E40">
+        <f>K40+36</f>
+        <v>18</v>
+      </c>
+      <c r="F40">
+        <f>L40+12</f>
+        <v>26</v>
+      </c>
+      <c r="G40">
+        <v>36</v>
+      </c>
+      <c r="H40">
+        <v>5</v>
+      </c>
+      <c r="I40">
+        <v>28</v>
+      </c>
+      <c r="J40">
+        <v>18</v>
+      </c>
+      <c r="K40">
+        <v>-18</v>
+      </c>
+      <c r="L40">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41">
+        <f>H41+12</f>
+        <v>22</v>
+      </c>
+      <c r="C41">
+        <f>I41+12</f>
+        <v>31</v>
+      </c>
+      <c r="D41">
+        <f>J41+18</f>
+        <v>34</v>
+      </c>
+      <c r="E41">
+        <f>K41+36</f>
+        <v>16</v>
+      </c>
+      <c r="F41">
+        <f>L41+12</f>
+        <v>32</v>
+      </c>
+      <c r="G41">
+        <v>37</v>
+      </c>
+      <c r="H41">
+        <v>10</v>
+      </c>
+      <c r="I41">
+        <v>19</v>
+      </c>
+      <c r="J41">
+        <v>16</v>
+      </c>
+      <c r="K41">
+        <v>-20</v>
+      </c>
+      <c r="L41">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42">
+        <f>H42+12</f>
+        <v>20</v>
+      </c>
+      <c r="C42">
+        <f>I42+12</f>
+        <v>34</v>
+      </c>
+      <c r="D42">
+        <f>J42+18</f>
+        <v>33</v>
+      </c>
+      <c r="E42">
+        <f>K42+36</f>
+        <v>36</v>
+      </c>
+      <c r="F42">
+        <f>L42+12</f>
+        <v>20</v>
+      </c>
+      <c r="G42">
+        <v>38</v>
+      </c>
+      <c r="H42">
+        <v>8</v>
+      </c>
+      <c r="I42">
+        <v>22</v>
+      </c>
+      <c r="J42">
+        <v>15</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43">
+        <f>H43+12</f>
+        <v>24</v>
+      </c>
+      <c r="C43">
+        <f>I43+12</f>
+        <v>29</v>
+      </c>
+      <c r="D43">
+        <f>J43+18</f>
+        <v>31</v>
+      </c>
+      <c r="E43">
+        <f>K43+36</f>
+        <v>24</v>
+      </c>
+      <c r="F43">
+        <f>L43+12</f>
+        <v>24</v>
+      </c>
+      <c r="G43">
+        <v>39</v>
+      </c>
+      <c r="H43">
+        <v>12</v>
+      </c>
+      <c r="I43">
+        <v>17</v>
+      </c>
+      <c r="J43">
+        <v>13</v>
+      </c>
+      <c r="K43">
+        <v>-12</v>
+      </c>
+      <c r="L43">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>33</v>
+      </c>
+      <c r="B44">
+        <f>H44+12</f>
+        <v>27</v>
+      </c>
+      <c r="C44">
+        <f>I44+12</f>
+        <v>37</v>
+      </c>
+      <c r="D44">
+        <f>J44+18</f>
+        <v>36</v>
+      </c>
+      <c r="E44">
+        <f>K44+36</f>
+        <v>18</v>
+      </c>
+      <c r="F44">
+        <f>L44+12</f>
+        <v>34</v>
+      </c>
+      <c r="G44">
+        <v>40</v>
+      </c>
+      <c r="H44">
+        <v>15</v>
+      </c>
+      <c r="I44">
+        <v>25</v>
+      </c>
+      <c r="J44">
+        <v>18</v>
+      </c>
+      <c r="K44">
+        <v>-18</v>
+      </c>
+      <c r="L44">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>62</v>
+      </c>
+      <c r="B45">
+        <f>H45+12</f>
+        <v>26</v>
+      </c>
+      <c r="C45">
+        <f>I45+12</f>
+        <v>38</v>
+      </c>
+      <c r="D45">
+        <f>J45+18</f>
+        <v>36</v>
+      </c>
+      <c r="E45">
+        <f>K45+36</f>
+        <v>14</v>
+      </c>
+      <c r="F45">
+        <f>L45+12</f>
+        <v>27</v>
+      </c>
+      <c r="G45">
+        <v>41</v>
+      </c>
+      <c r="H45">
+        <v>14</v>
+      </c>
+      <c r="I45">
+        <v>26</v>
+      </c>
+      <c r="J45">
+        <v>18</v>
+      </c>
+      <c r="K45">
+        <v>-22</v>
+      </c>
+      <c r="L45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46">
+        <f>H46+12</f>
+        <v>22</v>
+      </c>
+      <c r="C46">
+        <f>I46+12</f>
+        <v>24</v>
+      </c>
+      <c r="D46">
+        <f>J46+18</f>
+        <v>31</v>
+      </c>
+      <c r="E46">
+        <f>K46+36</f>
+        <v>24</v>
+      </c>
+      <c r="F46">
+        <f>L46+12</f>
+        <v>24</v>
+      </c>
+      <c r="G46">
+        <v>42</v>
+      </c>
+      <c r="H46">
+        <v>10</v>
+      </c>
+      <c r="I46">
+        <v>12</v>
+      </c>
+      <c r="J46">
+        <v>13</v>
+      </c>
+      <c r="K46">
+        <v>-12</v>
+      </c>
+      <c r="L46">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47">
+        <f>H47+12</f>
+        <v>22</v>
+      </c>
+      <c r="C47">
+        <f>I47+12</f>
+        <v>24</v>
+      </c>
+      <c r="D47">
+        <f>J47+18</f>
+        <v>31</v>
+      </c>
+      <c r="E47">
+        <f>K47+36</f>
+        <v>24</v>
+      </c>
+      <c r="F47">
+        <f>L47+12</f>
+        <v>26</v>
+      </c>
+      <c r="G47">
+        <v>43</v>
+      </c>
+      <c r="H47">
+        <v>10</v>
+      </c>
+      <c r="I47">
+        <v>12</v>
+      </c>
+      <c r="J47">
+        <v>13</v>
+      </c>
+      <c r="K47">
+        <v>-12</v>
+      </c>
+      <c r="L47">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>34</v>
+      </c>
+      <c r="B48">
+        <f>H48+12</f>
+        <v>22</v>
+      </c>
+      <c r="C48">
+        <f>I48+12</f>
         <v>30</v>
       </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K20" si="3">F3+36</f>
+      <c r="D48">
+        <f>J48+18</f>
+        <v>33</v>
+      </c>
+      <c r="E48">
+        <f>K48+36</f>
+        <v>11</v>
+      </c>
+      <c r="F48">
+        <f>L48+12</f>
+        <v>26</v>
+      </c>
+      <c r="G48">
+        <v>44</v>
+      </c>
+      <c r="H48">
+        <v>10</v>
+      </c>
+      <c r="I48">
+        <v>18</v>
+      </c>
+      <c r="J48">
+        <v>15</v>
+      </c>
+      <c r="K48">
+        <v>-25</v>
+      </c>
+      <c r="L48">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49">
+        <f>H49+12</f>
         <v>30</v>
       </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L20" si="4">G3+12</f>
+      <c r="C49">
+        <f>I49+12</f>
         <v>37</v>
       </c>
-      <c r="M3" t="s">
+      <c r="D49">
+        <f>J49+18</f>
+        <v>30</v>
+      </c>
+      <c r="E49">
+        <f>K49+36</f>
+        <v>16</v>
+      </c>
+      <c r="F49">
+        <f>L49+12</f>
+        <v>20</v>
+      </c>
+      <c r="G49">
+        <v>45</v>
+      </c>
+      <c r="H49">
+        <v>18</v>
+      </c>
+      <c r="I49">
+        <v>25</v>
+      </c>
+      <c r="J49">
+        <v>12</v>
+      </c>
+      <c r="K49">
+        <v>-20</v>
+      </c>
+      <c r="L49">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>29</v>
+      </c>
+      <c r="B50">
+        <f>H50+12</f>
+        <v>17</v>
+      </c>
+      <c r="C50">
+        <f>I50+12</f>
+        <v>40</v>
+      </c>
+      <c r="D50">
+        <f>J50+18</f>
+        <v>36</v>
+      </c>
+      <c r="E50">
+        <f>K50+36</f>
+        <v>18</v>
+      </c>
+      <c r="F50">
+        <f>L50+12</f>
+        <v>26</v>
+      </c>
+      <c r="G50">
+        <v>46</v>
+      </c>
+      <c r="H50">
+        <v>5</v>
+      </c>
+      <c r="I50">
+        <v>28</v>
+      </c>
+      <c r="J50">
+        <v>18</v>
+      </c>
+      <c r="K50">
+        <v>-18</v>
+      </c>
+      <c r="L50">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>66</v>
+      </c>
+      <c r="B51">
+        <f>H51+12</f>
+        <v>24</v>
+      </c>
+      <c r="C51">
+        <f>I51+12</f>
+        <v>36</v>
+      </c>
+      <c r="D51">
+        <f>J51+18</f>
+        <v>37</v>
+      </c>
+      <c r="E51">
+        <f>K51+36</f>
+        <v>20</v>
+      </c>
+      <c r="F51">
+        <f>L51+12</f>
+        <v>34</v>
+      </c>
+      <c r="G51">
+        <v>47</v>
+      </c>
+      <c r="H51">
+        <v>12</v>
+      </c>
+      <c r="I51">
+        <v>24</v>
+      </c>
+      <c r="J51">
+        <v>19</v>
+      </c>
+      <c r="K51">
+        <v>-16</v>
+      </c>
+      <c r="L51">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>67</v>
+      </c>
+      <c r="B52">
+        <f>H52+12</f>
+        <v>25</v>
+      </c>
+      <c r="C52">
+        <f>I52+12</f>
+        <v>27</v>
+      </c>
+      <c r="D52">
+        <f>J52+18</f>
+        <v>30</v>
+      </c>
+      <c r="E52">
+        <f>K52+36</f>
+        <v>22</v>
+      </c>
+      <c r="F52">
+        <f>L52+12</f>
+        <v>23</v>
+      </c>
+      <c r="G52">
+        <v>48</v>
+      </c>
+      <c r="H52">
+        <v>13</v>
+      </c>
+      <c r="I52">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>5</v>
-      </c>
-      <c r="C4">
+      <c r="J52">
+        <v>12</v>
+      </c>
+      <c r="K52">
+        <v>-14</v>
+      </c>
+      <c r="L52">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>68</v>
+      </c>
+      <c r="B53">
+        <f>H53+12</f>
+        <v>23</v>
+      </c>
+      <c r="C53">
+        <f>I53+12</f>
+        <v>27</v>
+      </c>
+      <c r="D53">
+        <f>J53+18</f>
+        <v>30</v>
+      </c>
+      <c r="E53">
+        <f>K53+36</f>
+        <v>22</v>
+      </c>
+      <c r="F53">
+        <f>L53+12</f>
+        <v>24</v>
+      </c>
+      <c r="G53">
+        <v>49</v>
+      </c>
+      <c r="H53">
+        <v>11</v>
+      </c>
+      <c r="I53">
+        <v>15</v>
+      </c>
+      <c r="J53">
+        <v>12</v>
+      </c>
+      <c r="K53">
+        <v>-14</v>
+      </c>
+      <c r="L53">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>30</v>
+      </c>
+      <c r="B54">
+        <f>H54+12</f>
+        <v>25</v>
+      </c>
+      <c r="C54">
+        <f>I54+12</f>
+        <v>41</v>
+      </c>
+      <c r="D54">
+        <f>J54+18</f>
+        <v>23</v>
+      </c>
+      <c r="E54">
+        <f>K54+36</f>
+        <v>5</v>
+      </c>
+      <c r="F54">
+        <f>L54+12</f>
+        <v>30</v>
+      </c>
+      <c r="G54">
+        <v>50</v>
+      </c>
+      <c r="H54">
+        <v>13</v>
+      </c>
+      <c r="I54">
+        <v>29</v>
+      </c>
+      <c r="J54">
+        <v>5</v>
+      </c>
+      <c r="K54">
+        <v>-31</v>
+      </c>
+      <c r="L54">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>14</v>
       </c>
-      <c r="D4">
-        <v>14</v>
-      </c>
-      <c r="E4">
+      <c r="H56">
+        <v>36</v>
+      </c>
+      <c r="I56">
+        <v>36</v>
+      </c>
+      <c r="J56">
+        <v>30</v>
+      </c>
+      <c r="K56">
         <v>12</v>
       </c>
-      <c r="F4">
-        <v>-20</v>
-      </c>
-      <c r="G4">
-        <v>22</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="K4">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="4"/>
-        <v>34</v>
-      </c>
-      <c r="M4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>11</v>
-      </c>
-      <c r="C5">
-        <v>13</v>
-      </c>
-      <c r="D5">
-        <v>29</v>
-      </c>
-      <c r="E5">
-        <v>5</v>
-      </c>
-      <c r="F5">
-        <v>-31</v>
-      </c>
-      <c r="G5">
-        <v>18</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="4"/>
-        <v>30</v>
-      </c>
-      <c r="M5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6">
-        <v>12</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>22</v>
-      </c>
-      <c r="E6">
-        <v>24</v>
-      </c>
-      <c r="F6">
-        <v>-14</v>
-      </c>
-      <c r="G6">
-        <v>27</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="0"/>
+      <c r="L56">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>15</v>
       </c>
-      <c r="I6">
-        <f t="shared" si="1"/>
-        <v>34</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="2"/>
-        <v>42</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="3"/>
-        <v>22</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="4"/>
-        <v>39</v>
-      </c>
-      <c r="M6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7">
-        <v>15</v>
-      </c>
-      <c r="C7">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>25</v>
-      </c>
-      <c r="E7">
-        <v>20</v>
-      </c>
-      <c r="F7">
-        <v>-20</v>
-      </c>
-      <c r="G7">
-        <v>15</v>
-      </c>
-      <c r="H7">
-        <f>C7+12</f>
-        <v>16</v>
-      </c>
-      <c r="I7">
-        <f>D7+12</f>
-        <v>37</v>
-      </c>
-      <c r="J7">
-        <f>E7+18</f>
-        <v>38</v>
-      </c>
-      <c r="K7">
-        <f>F7+36</f>
-        <v>16</v>
-      </c>
-      <c r="L7">
-        <f>G7+12</f>
-        <v>27</v>
-      </c>
-      <c r="M7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8">
-        <v>19</v>
-      </c>
-      <c r="C8">
-        <v>18</v>
-      </c>
-      <c r="D8">
-        <v>28</v>
-      </c>
-      <c r="E8">
-        <v>8</v>
-      </c>
-      <c r="F8">
-        <v>-28</v>
-      </c>
-      <c r="G8">
-        <v>16</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="2"/>
-        <v>26</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="4"/>
-        <v>28</v>
-      </c>
-      <c r="M8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9">
-        <v>24</v>
-      </c>
-      <c r="C9">
-        <v>15</v>
-      </c>
-      <c r="D9">
-        <v>18</v>
-      </c>
-      <c r="E9">
-        <v>15</v>
-      </c>
-      <c r="F9">
-        <v>-25</v>
-      </c>
-      <c r="G9">
-        <v>29</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="2"/>
-        <v>33</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="4"/>
-        <v>41</v>
-      </c>
-      <c r="M9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10">
-        <v>25</v>
-      </c>
-      <c r="C10">
-        <v>14</v>
-      </c>
-      <c r="D10">
-        <v>14</v>
-      </c>
-      <c r="E10">
-        <v>12</v>
-      </c>
-      <c r="F10">
-        <v>-20</v>
-      </c>
-      <c r="G10">
-        <v>22</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="4"/>
-        <v>34</v>
-      </c>
-      <c r="M10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11">
-        <v>26</v>
-      </c>
-      <c r="C11">
-        <v>8</v>
-      </c>
-      <c r="D11">
-        <v>14</v>
-      </c>
-      <c r="E11">
-        <v>15</v>
-      </c>
-      <c r="F11">
+      <c r="H57">
+        <v>-12</v>
+      </c>
+      <c r="I57">
+        <v>-12</v>
+      </c>
+      <c r="J57">
         <v>-18</v>
       </c>
-      <c r="G11">
-        <v>20</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="2"/>
-        <v>33</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="4"/>
-        <v>32</v>
-      </c>
-      <c r="M11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12">
-        <v>29</v>
-      </c>
-      <c r="C12">
-        <v>16</v>
-      </c>
-      <c r="D12">
-        <v>30</v>
-      </c>
-      <c r="E12">
-        <v>12</v>
-      </c>
-      <c r="F12">
-        <v>-28</v>
-      </c>
-      <c r="G12">
-        <v>10</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="4"/>
-        <v>22</v>
-      </c>
-      <c r="M12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13">
-        <v>30</v>
-      </c>
-      <c r="C13">
-        <v>13</v>
-      </c>
-      <c r="D13">
-        <v>29</v>
-      </c>
-      <c r="E13">
-        <v>16</v>
-      </c>
-      <c r="F13">
-        <v>-25</v>
-      </c>
-      <c r="G13">
-        <v>12</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="2"/>
-        <v>34</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="4"/>
-        <v>24</v>
-      </c>
-      <c r="M13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14">
-        <v>33</v>
-      </c>
-      <c r="C14">
-        <v>24</v>
-      </c>
-      <c r="D14">
-        <v>16</v>
-      </c>
-      <c r="E14">
-        <v>10</v>
-      </c>
-      <c r="F14">
-        <v>-32</v>
-      </c>
-      <c r="G14">
-        <v>4</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="2"/>
-        <v>28</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="4"/>
-        <v>16</v>
-      </c>
-      <c r="M14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15">
-        <v>36</v>
-      </c>
-      <c r="C15">
-        <v>5</v>
-      </c>
-      <c r="D15">
-        <v>28</v>
-      </c>
-      <c r="E15">
-        <v>18</v>
-      </c>
-      <c r="F15">
-        <v>-18</v>
-      </c>
-      <c r="G15">
-        <v>14</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="2"/>
-        <v>36</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="L15">
-        <f t="shared" si="4"/>
-        <v>26</v>
-      </c>
-      <c r="M15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16">
-        <v>37</v>
-      </c>
-      <c r="C16">
-        <v>10</v>
-      </c>
-      <c r="D16">
-        <v>19</v>
-      </c>
-      <c r="E16">
-        <v>16</v>
-      </c>
-      <c r="F16">
-        <v>-20</v>
-      </c>
-      <c r="G16">
-        <v>20</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="2"/>
-        <v>34</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="L16">
-        <f t="shared" si="4"/>
-        <v>32</v>
-      </c>
-      <c r="M16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17">
-        <v>40</v>
-      </c>
-      <c r="C17">
-        <v>15</v>
-      </c>
-      <c r="D17">
-        <v>25</v>
-      </c>
-      <c r="E17">
-        <v>18</v>
-      </c>
-      <c r="F17">
-        <v>-18</v>
-      </c>
-      <c r="G17">
-        <v>22</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="2"/>
-        <v>36</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="L17">
-        <f t="shared" si="4"/>
-        <v>34</v>
-      </c>
-      <c r="M17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18">
-        <v>44</v>
-      </c>
-      <c r="C18">
-        <v>10</v>
-      </c>
-      <c r="D18">
-        <v>18</v>
-      </c>
-      <c r="E18">
-        <v>15</v>
-      </c>
-      <c r="F18">
-        <v>-25</v>
-      </c>
-      <c r="G18">
-        <v>14</v>
-      </c>
-      <c r="H18">
-        <f t="shared" ref="H18" si="5">C18+12</f>
-        <v>22</v>
-      </c>
-      <c r="I18">
-        <f t="shared" ref="I18" si="6">D18+12</f>
-        <v>30</v>
-      </c>
-      <c r="J18">
-        <f t="shared" ref="J18" si="7">E18+18</f>
-        <v>33</v>
-      </c>
-      <c r="K18">
-        <f t="shared" ref="K18" si="8">F18+36</f>
-        <v>11</v>
-      </c>
-      <c r="L18">
-        <f t="shared" ref="L18" si="9">G18+12</f>
-        <v>26</v>
-      </c>
-      <c r="M18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19">
-        <v>46</v>
-      </c>
-      <c r="C19">
-        <v>5</v>
-      </c>
-      <c r="D19">
-        <v>28</v>
-      </c>
-      <c r="E19">
-        <v>18</v>
-      </c>
-      <c r="F19">
-        <v>-18</v>
-      </c>
-      <c r="G19">
-        <v>14</v>
-      </c>
-      <c r="H19">
-        <f t="shared" ref="H19" si="10">C19+12</f>
-        <v>17</v>
-      </c>
-      <c r="I19">
-        <f t="shared" ref="I19" si="11">D19+12</f>
-        <v>40</v>
-      </c>
-      <c r="J19">
-        <f t="shared" ref="J19" si="12">E19+18</f>
-        <v>36</v>
-      </c>
-      <c r="K19">
-        <f t="shared" ref="K19" si="13">F19+36</f>
-        <v>18</v>
-      </c>
-      <c r="L19">
-        <f t="shared" ref="L19" si="14">G19+12</f>
-        <v>26</v>
-      </c>
-      <c r="M19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20">
-        <v>50</v>
-      </c>
-      <c r="C20">
-        <v>13</v>
-      </c>
-      <c r="D20">
-        <v>29</v>
-      </c>
-      <c r="E20">
-        <v>5</v>
-      </c>
-      <c r="F20">
-        <v>-31</v>
-      </c>
-      <c r="G20">
-        <v>18</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="J20">
-        <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="K20">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="L20">
-        <f t="shared" si="4"/>
-        <v>30</v>
-      </c>
-      <c r="M20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22">
-        <v>36</v>
-      </c>
-      <c r="D22">
-        <v>36</v>
-      </c>
-      <c r="E22">
-        <v>30</v>
-      </c>
-      <c r="F22">
-        <v>12</v>
-      </c>
-      <c r="G22">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23">
-        <v>-12</v>
-      </c>
-      <c r="D23">
-        <v>-12</v>
-      </c>
-      <c r="E23">
-        <v>-18</v>
-      </c>
-      <c r="F23">
+      <c r="K57">
         <v>-36</v>
       </c>
-      <c r="G23">
+      <c r="L57">
         <v>-12</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4252,4 +5774,547 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD7FBD33-A882-4D3D-989A-D89DBBF7676A}">
+  <dimension ref="A1:G61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <f>-B2+B7+B12-B17+B22+B27-B32+B37+B42-B47+B52+B57</f>
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <f>B3+B8-B13+B18+B23-B28+B33+B38-B43+B48+B53-B58</f>
+        <v>23</v>
+      </c>
+      <c r="E2">
+        <f>B4+B9+B14-B19-B24-B29-B34+B39+B44-B49+B54+B59</f>
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <f>B5-B10-B15-B20-B25+B30+B35-B40-B45+B50-B55-B60</f>
+        <v>-3</v>
+      </c>
+      <c r="G2">
+        <f>B6+B11-B16+B21+B26-B31+B36+B41-B46+B51-B56+B61</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>